--- a/spliced/walkingToRunning/2023-03-30_14-28-27/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-28-27/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.486610889434814</v>
+        <v>0.2934486865997314</v>
       </c>
       <c r="B2" t="n">
-        <v>-19.02692794799805</v>
+        <v>-24.41073989868164</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.421220779418945</v>
+        <v>-1.238773345947266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.134828090667725</v>
+        <v>2.638106346130371</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.44269371032715</v>
+        <v>-17.53305244445801</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.357526302337647</v>
+        <v>-1.380356788635254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.494446396827698</v>
+        <v>2.457366943359375</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.40649795532227</v>
+        <v>-12.19800853729248</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.447004318237305</v>
+        <v>-2.702709674835205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8428599834442139</v>
+        <v>1.40507447719574</v>
       </c>
       <c r="B5" t="n">
-        <v>-13.50097179412842</v>
+        <v>-11.89906311035156</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.483202457427979</v>
+        <v>-5.299991607666016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.948378562927246</v>
+        <v>7.022602081298828</v>
       </c>
       <c r="B6" t="n">
-        <v>-17.74329948425293</v>
+        <v>-22.80319976806641</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.102754592895508</v>
+        <v>12.74471092224121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.71714448928833</v>
+        <v>-13.86397647857666</v>
       </c>
       <c r="B7" t="n">
-        <v>-15.43135833740234</v>
+        <v>-20.78690338134766</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4548602104187011</v>
+        <v>3.63317346572876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.847911357879639</v>
+        <v>-2.486610889434814</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.33660507202148</v>
+        <v>-19.02692794799805</v>
       </c>
       <c r="C8" t="n">
-        <v>6.749421119689941</v>
+        <v>-5.421220779418945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.91429901123047</v>
+        <v>2.134828090667725</v>
       </c>
       <c r="B9" t="n">
-        <v>-23.71953201293945</v>
+        <v>-14.44269371032715</v>
       </c>
       <c r="C9" t="n">
-        <v>22.54716873168945</v>
+        <v>-4.357526302337647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.127767562866211</v>
+        <v>1.494446396827698</v>
       </c>
       <c r="B10" t="n">
-        <v>-25.82431030273437</v>
+        <v>-15.40649795532227</v>
       </c>
       <c r="C10" t="n">
-        <v>2.553998231887817</v>
+        <v>-6.447004318237305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-12.36970138549805</v>
+        <v>-0.8428599834442139</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.04128646850586</v>
+        <v>-13.50097179412842</v>
       </c>
       <c r="C11" t="n">
-        <v>-19.66802978515625</v>
+        <v>-3.483202457427979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-13.15851974487305</v>
+        <v>-0.948378562927246</v>
       </c>
       <c r="B12" t="n">
-        <v>-18.03956413269043</v>
+        <v>-17.74329948425293</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.630072116851807</v>
+        <v>-5.102754592895508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15.48420429229736</v>
+        <v>2.71714448928833</v>
       </c>
       <c r="B13" t="n">
-        <v>-32.6015739440918</v>
+        <v>-15.43135833740234</v>
       </c>
       <c r="C13" t="n">
-        <v>28.89531707763672</v>
+        <v>-0.4548602104187011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.63175868988037</v>
+        <v>5.847911357879639</v>
       </c>
       <c r="B14" t="n">
-        <v>-10.51330184936523</v>
+        <v>-17.33660507202148</v>
       </c>
       <c r="C14" t="n">
-        <v>13.76239585876465</v>
+        <v>6.749421119689941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19.2936897277832</v>
+        <v>16.91429901123047</v>
       </c>
       <c r="B15" t="n">
-        <v>-10.78378295898438</v>
+        <v>-23.71953201293945</v>
       </c>
       <c r="C15" t="n">
-        <v>9.518977165222168</v>
+        <v>22.54716873168945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.209894180297852</v>
+        <v>7.127767562866211</v>
       </c>
       <c r="B16" t="n">
-        <v>-38.24882507324219</v>
+        <v>-25.82431030273437</v>
       </c>
       <c r="C16" t="n">
-        <v>16.8684253692627</v>
+        <v>2.553998231887817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.28531169891357</v>
+        <v>-12.36970138549805</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.773443222045898</v>
+        <v>-11.04128646850586</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.362334251403809</v>
+        <v>-19.66802978515625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-12.19628238677978</v>
+        <v>-13.15851974487305</v>
       </c>
       <c r="B18" t="n">
-        <v>-18.89439392089844</v>
+        <v>-18.03956413269043</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.69162940979004</v>
+        <v>-7.630072116851807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27.13467597961425</v>
+        <v>15.48420429229736</v>
       </c>
       <c r="B19" t="n">
-        <v>-28.36122703552246</v>
+        <v>-32.6015739440918</v>
       </c>
       <c r="C19" t="n">
-        <v>6.44420337677002</v>
+        <v>28.89531707763672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.487966060638428</v>
+        <v>12.63175868988037</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.607144355773926</v>
+        <v>-10.51330184936523</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4285287857055664</v>
+        <v>13.76239585876465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>19.2936897277832</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-10.78378295898438</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.518977165222168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6.209894180297852</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-38.24882507324219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16.8684253692627</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14.28531169891357</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-6.773443222045898</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.362334251403809</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-12.19628238677978</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.89439392089844</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-11.69162940979004</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.13467597961425</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-28.36122703552246</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.44420337677002</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.487966060638428</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.607144355773926</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4285287857055664</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-40.79524230957031</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>-87.16375732421875</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>55.55958557128906</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-18.23663902282715</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-27.17941665649414</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-57.50062561035156</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-9.547454833984377</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.686841011047363</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-6.594038009643555</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-7.443731307983398</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-33.3333854675293</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.94254684448242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-11.20403289794922</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.358112335205078</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.592035293579102</v>
       </c>
     </row>
   </sheetData>
